--- a/pd.xlsx
+++ b/pd.xlsx
@@ -1,96 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>adrress</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>duong</t>
-  </si>
-  <si>
-    <t>hai</t>
-  </si>
-  <si>
-    <t>phong</t>
-  </si>
-  <si>
-    <t>quỳnh</t>
-  </si>
-  <si>
-    <t>nga</t>
-  </si>
-  <si>
-    <t>trang</t>
-  </si>
-  <si>
-    <t>ngan</t>
-  </si>
-  <si>
-    <t>hà nội</t>
-  </si>
-  <si>
-    <t>hải phòng</t>
-  </si>
-  <si>
-    <t>thanh hóa</t>
-  </si>
-  <si>
-    <t>nghệ an</t>
-  </si>
-  <si>
-    <t>hà tĩnh</t>
-  </si>
-  <si>
-    <t>vinh</t>
-  </si>
-  <si>
-    <t>sài gòn</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,23 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -193,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,132 +420,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>duong</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>hà nội</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>912248000</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hai</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hải phòng</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>909552663</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>phong</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>thanh hóa</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>915668999</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>912248000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>quỳnh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>913666785</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>909552663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nga</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>hà tĩnh</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>913526875</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>915668999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>trang</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vinh</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>917623552</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>913666785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ngan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sài gòn</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>913526875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>917623552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>985226333</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>999</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>